--- a/tests/utils/payment_schedule_test_definitions.xlsx
+++ b/tests/utils/payment_schedule_test_definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shasa\Documents\frm_project\tests\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223D6ECF-8E0C-40D6-BF40-0FAF526D81F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41CDE9D-8C8D-4A66-8D2A-A2910B983402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9A17A4CD-5945-4EB4-8BDD-5AC4CC58AFB3}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{9A17A4CD-5945-4EB4-8BDD-5AC4CC58AFB3}"/>
   </bookViews>
   <sheets>
     <sheet name="test_cases" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
   <si>
     <t>start_date</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>last_stub_type</t>
-  </si>
-  <si>
-    <t>payment_type</t>
   </si>
   <si>
     <t>payment_delay</t>
@@ -231,6 +228,12 @@
   <si>
     <t>monthly</t>
   </si>
+  <si>
+    <t>payment_timing</t>
+  </si>
+  <si>
+    <t>add_payment_dates</t>
+  </si>
 </sst>
 </file>
 
@@ -293,7 +296,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -321,6 +324,14 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -487,26 +498,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F341400-2ECE-4F7B-81AA-7350AE6E4ECF}" name="test_cases" displayName="test_cases" ref="A1:O31" totalsRowShown="0">
-  <autoFilter ref="A1:O31" xr:uid="{2F341400-2ECE-4F7B-81AA-7350AE6E4ECF}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{90A6D377-2432-4BAB-B570-DEA017022738}" name="test_#" dataDxfId="22" totalsRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F341400-2ECE-4F7B-81AA-7350AE6E4ECF}" name="test_cases" displayName="test_cases" ref="A1:P31" totalsRowShown="0">
+  <autoFilter ref="A1:P31" xr:uid="{2F341400-2ECE-4F7B-81AA-7350AE6E4ECF}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{90A6D377-2432-4BAB-B570-DEA017022738}" name="test_#" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C09AB830-185A-4CEE-B150-D8F8A7C30C4B}" name="test_bucket" totalsRowDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{3150D5FF-CF0A-408D-B154-10394F874A77}" name="description" totalsRowDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{9559D1FD-C77D-41F9-B1B5-F2A7DC16989C}" name="start_date" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{7F4D4E9E-860B-4D4B-8569-7DCE30FFBC9E}" name="end_date" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{1759D6C9-B37F-4F77-A70C-9847722F2C5E}" name="frequency" totalsRowDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{DF1AAFDF-CF8B-4D74-A1F9-0E955E53641C}" name="roll_convention" totalsRowDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{792D4866-D407-471B-8D1A-743BD422BCB5}" name="day_roll" totalsRowDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{1C32AE12-60FF-40D9-86D1-F6F84DB1E474}" name="first_cpn_end_date" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{4AAD0224-E9DA-4126-9E3D-503943A44EF4}" name="last_cpn_start_date" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{C759A695-B6E3-44D5-88B8-763A469C90D9}" name="first_stub_type" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{2C02004C-2551-46CE-B7F6-B76F2C30C36E}" name="last_stub_type" totalsRowDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{3FE5CF6C-0BA7-47DE-A234-D665BCCCE4E7}" name="payment_type" totalsRowDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{4DC131FE-D198-491B-974B-6A008C267405}" name="payment_delay" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C09AB830-185A-4CEE-B150-D8F8A7C30C4B}" name="test_bucket" totalsRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{3150D5FF-CF0A-408D-B154-10394F874A77}" name="description" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{9559D1FD-C77D-41F9-B1B5-F2A7DC16989C}" name="start_date" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{7F4D4E9E-860B-4D4B-8569-7DCE30FFBC9E}" name="end_date" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{1759D6C9-B37F-4F77-A70C-9847722F2C5E}" name="frequency" totalsRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{DF1AAFDF-CF8B-4D74-A1F9-0E955E53641C}" name="roll_convention" totalsRowDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{792D4866-D407-471B-8D1A-743BD422BCB5}" name="day_roll" totalsRowDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{1C32AE12-60FF-40D9-86D1-F6F84DB1E474}" name="first_cpn_end_date" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{4AAD0224-E9DA-4126-9E3D-503943A44EF4}" name="last_cpn_start_date" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{C759A695-B6E3-44D5-88B8-763A469C90D9}" name="first_stub_type" totalsRowDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{2C02004C-2551-46CE-B7F6-B76F2C30C36E}" name="last_stub_type" totalsRowDxfId="7"/>
     <tableColumn id="15" xr3:uid="{6C293554-9689-4D69-B2B8-5908D66BE4E5}" name="roll_user_specified_dates" totalsRowDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{654ACDA7-5B9B-44BA-B390-9390F3DAEB6E}" name="add_payment_dates" totalsRowDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{3FE5CF6C-0BA7-47DE-A234-D665BCCCE4E7}" name="payment_timing" totalsRowDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{4DC131FE-D198-491B-974B-6A008C267405}" name="payment_delay" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -829,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4052F839-BA51-4CEA-BAEE-D19E0715C6D0}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="N2" sqref="N2:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -849,20 +861,21 @@
     <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -871,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -892,25 +905,28 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
       <c r="D2" s="2">
         <v>43845</v>
@@ -919,21 +935,24 @@
         <v>43936</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A27" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2">
         <v>43845</v>
@@ -942,21 +961,24 @@
         <v>44027</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2">
         <v>43845</v>
@@ -965,21 +987,24 @@
         <v>44211</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>43845</v>
@@ -988,21 +1013,24 @@
         <v>44211</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>43845</v>
@@ -1011,12 +1039,15 @@
         <v>44242</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1025,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>43845</v>
@@ -1034,12 +1065,15 @@
         <v>43966</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1048,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>44104</v>
@@ -1057,12 +1091,15 @@
         <v>44135</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1071,7 +1108,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>44104</v>
@@ -1080,15 +1117,18 @@
         <v>44135</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1097,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>43861</v>
@@ -1106,15 +1146,18 @@
         <v>43982</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1123,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>43861</v>
@@ -1132,24 +1175,27 @@
         <v>43982</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11">
         <v>16</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>43845</v>
@@ -1158,21 +1204,24 @@
         <v>43982</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>43845</v>
@@ -1181,24 +1230,27 @@
         <v>43982</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>43845</v>
@@ -1207,24 +1259,27 @@
         <v>43982</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>43845</v>
@@ -1233,24 +1288,27 @@
         <v>43982</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>43845</v>
@@ -1259,24 +1317,27 @@
         <v>43982</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>43845</v>
@@ -1285,24 +1346,27 @@
         <v>43982</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="L17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>43845</v>
@@ -1311,24 +1375,27 @@
         <v>43982</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="L18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2">
         <v>43845</v>
@@ -1337,24 +1404,27 @@
         <v>43982</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="L19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2">
         <v>43845</v>
@@ -1363,24 +1433,27 @@
         <v>43982</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="L20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2">
         <v>45509</v>
@@ -1389,10 +1462,10 @@
         <v>46461</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21">
         <v>15</v>
@@ -1403,17 +1476,20 @@
       <c r="J21" s="2">
         <v>46371</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2">
         <v>45509</v>
@@ -1422,10 +1498,10 @@
         <v>46461</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H22">
         <v>15</v>
@@ -1434,17 +1510,20 @@
         <v>45551</v>
       </c>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2">
         <v>45509</v>
@@ -1453,10 +1532,10 @@
         <v>46461</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23">
         <v>15</v>
@@ -1465,17 +1544,20 @@
       <c r="J23" s="2">
         <v>46371</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2">
         <v>45509</v>
@@ -1484,10 +1566,10 @@
         <v>46461</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I24" s="2">
         <v>45551</v>
@@ -1495,17 +1577,20 @@
       <c r="J24" s="2">
         <v>46371</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2">
         <v>45509</v>
@@ -1514,26 +1599,29 @@
         <v>46461</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I25" s="2">
         <v>45551</v>
       </c>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="2">
         <v>45509</v>
@@ -1542,26 +1630,29 @@
         <v>46461</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2">
         <v>46371</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="2">
         <v>45509</v>
@@ -1570,26 +1661,29 @@
         <v>46097</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2">
         <v>46006</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>ROW()-1</f>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2">
         <v>45509</v>
@@ -1598,24 +1692,27 @@
         <v>45733</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>ROW()-1</f>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="2">
         <v>45509</v>
@@ -1624,24 +1721,27 @@
         <v>45733</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <f>ROW()-1</f>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="2">
         <v>45509</v>
@@ -1650,24 +1750,27 @@
         <v>45733</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="L30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <f>ROW()-1</f>
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="2">
         <v>45509</v>
@@ -1676,12 +1779,15 @@
         <v>45733</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="L31" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1716,31 +1822,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4006,7 +4112,7 @@
         <v>45642</v>
       </c>
       <c r="G66" s="5">
-        <f t="shared" ref="G66:G97" si="6">F66-E66</f>
+        <f t="shared" ref="G66:G69" si="6">F66-E66</f>
         <v>91</v>
       </c>
       <c r="H66">
@@ -6504,27 +6610,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/tests/utils/payment_schedule_test_definitions.xlsx
+++ b/tests/utils/payment_schedule_test_definitions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shasa\Documents\frm_project\tests\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shasa\Documents\FRM_PUBLIC\tests\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41CDE9D-8C8D-4A66-8D2A-A2910B983402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F6B61-06C5-4B58-9B78-AB864060BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{9A17A4CD-5945-4EB4-8BDD-5AC4CC58AFB3}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
   <si>
     <t>start_date</t>
   </si>
@@ -49,25 +49,7 @@
     <t>end_date</t>
   </si>
   <si>
-    <t>roll_convention</t>
-  </si>
-  <si>
     <t>day_roll</t>
-  </si>
-  <si>
-    <t>first_cpn_end_date</t>
-  </si>
-  <si>
-    <t>last_cpn_start_date</t>
-  </si>
-  <si>
-    <t>first_stub_type</t>
-  </si>
-  <si>
-    <t>last_stub_type</t>
-  </si>
-  <si>
-    <t>payment_delay</t>
   </si>
   <si>
     <t>roll_user_specified_dates</t>
@@ -217,9 +199,6 @@
     <t>2 periods with first long stub</t>
   </si>
   <si>
-    <t>frequency</t>
-  </si>
-  <si>
     <t>2 periods with last long stub</t>
   </si>
   <si>
@@ -229,10 +208,22 @@
     <t>monthly</t>
   </si>
   <si>
-    <t>payment_timing</t>
+    <t>freq</t>
   </si>
   <si>
-    <t>add_payment_dates</t>
+    <t>roll_conv</t>
+  </si>
+  <si>
+    <t>first_stub</t>
+  </si>
+  <si>
+    <t>last_stub</t>
+  </si>
+  <si>
+    <t>last_period_start</t>
+  </si>
+  <si>
+    <t>first_period_end</t>
   </si>
 </sst>
 </file>
@@ -296,7 +287,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -324,30 +315,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -498,27 +465,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F341400-2ECE-4F7B-81AA-7350AE6E4ECF}" name="test_cases" displayName="test_cases" ref="A1:P31" totalsRowShown="0">
-  <autoFilter ref="A1:P31" xr:uid="{2F341400-2ECE-4F7B-81AA-7350AE6E4ECF}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{90A6D377-2432-4BAB-B570-DEA017022738}" name="test_#" dataDxfId="23" totalsRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F341400-2ECE-4F7B-81AA-7350AE6E4ECF}" name="test_cases" displayName="test_cases" ref="A1:M31" totalsRowShown="0">
+  <autoFilter ref="A1:M31" xr:uid="{2F341400-2ECE-4F7B-81AA-7350AE6E4ECF}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{90A6D377-2432-4BAB-B570-DEA017022738}" name="test_#" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C09AB830-185A-4CEE-B150-D8F8A7C30C4B}" name="test_bucket" totalsRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{3150D5FF-CF0A-408D-B154-10394F874A77}" name="description" totalsRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{9559D1FD-C77D-41F9-B1B5-F2A7DC16989C}" name="start_date" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{7F4D4E9E-860B-4D4B-8569-7DCE30FFBC9E}" name="end_date" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{1759D6C9-B37F-4F77-A70C-9847722F2C5E}" name="frequency" totalsRowDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{DF1AAFDF-CF8B-4D74-A1F9-0E955E53641C}" name="roll_convention" totalsRowDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{792D4866-D407-471B-8D1A-743BD422BCB5}" name="day_roll" totalsRowDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{1C32AE12-60FF-40D9-86D1-F6F84DB1E474}" name="first_cpn_end_date" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{4AAD0224-E9DA-4126-9E3D-503943A44EF4}" name="last_cpn_start_date" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{C759A695-B6E3-44D5-88B8-763A469C90D9}" name="first_stub_type" totalsRowDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{2C02004C-2551-46CE-B7F6-B76F2C30C36E}" name="last_stub_type" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C09AB830-185A-4CEE-B150-D8F8A7C30C4B}" name="test_bucket" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{3150D5FF-CF0A-408D-B154-10394F874A77}" name="description" totalsRowDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{9559D1FD-C77D-41F9-B1B5-F2A7DC16989C}" name="start_date" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{7F4D4E9E-860B-4D4B-8569-7DCE30FFBC9E}" name="end_date" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{1759D6C9-B37F-4F77-A70C-9847722F2C5E}" name="freq" totalsRowDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{DF1AAFDF-CF8B-4D74-A1F9-0E955E53641C}" name="roll_conv" totalsRowDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{792D4866-D407-471B-8D1A-743BD422BCB5}" name="day_roll" totalsRowDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{1C32AE12-60FF-40D9-86D1-F6F84DB1E474}" name="first_period_end" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{4AAD0224-E9DA-4126-9E3D-503943A44EF4}" name="last_period_start" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{C759A695-B6E3-44D5-88B8-763A469C90D9}" name="first_stub" totalsRowDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{2C02004C-2551-46CE-B7F6-B76F2C30C36E}" name="last_stub" totalsRowDxfId="4"/>
     <tableColumn id="15" xr3:uid="{6C293554-9689-4D69-B2B8-5908D66BE4E5}" name="roll_user_specified_dates" totalsRowDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{654ACDA7-5B9B-44BA-B390-9390F3DAEB6E}" name="add_payment_dates" totalsRowDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{3FE5CF6C-0BA7-47DE-A234-D665BCCCE4E7}" name="payment_timing" totalsRowDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{4DC131FE-D198-491B-974B-6A008C267405}" name="payment_delay" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -841,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4052F839-BA51-4CEA-BAEE-D19E0715C6D0}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N31"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -854,28 +818,25 @@
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -884,49 +845,40 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2">
         <v>43845</v>
@@ -935,24 +887,21 @@
         <v>43936</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A27" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2">
         <v>43845</v>
@@ -961,24 +910,21 @@
         <v>44027</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
         <v>43845</v>
@@ -987,24 +933,21 @@
         <v>44211</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>43845</v>
@@ -1013,24 +956,21 @@
         <v>44211</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>43845</v>
@@ -1039,24 +979,21 @@
         <v>44242</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>43845</v>
@@ -1065,24 +1002,21 @@
         <v>43966</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>44104</v>
@@ -1091,24 +1025,21 @@
         <v>44135</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
         <v>44104</v>
@@ -1117,27 +1048,24 @@
         <v>44135</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
         <v>43861</v>
@@ -1146,27 +1074,24 @@
         <v>43982</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>43861</v>
@@ -1175,27 +1100,24 @@
         <v>43982</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H11">
         <v>16</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
         <v>43845</v>
@@ -1204,24 +1126,21 @@
         <v>43982</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
         <v>43845</v>
@@ -1230,27 +1149,24 @@
         <v>43982</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
         <v>43845</v>
@@ -1259,27 +1175,24 @@
         <v>43982</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>43845</v>
@@ -1288,27 +1201,24 @@
         <v>43982</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>43845</v>
@@ -1317,27 +1227,24 @@
         <v>43982</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>43845</v>
@@ -1346,27 +1253,24 @@
         <v>43982</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="L17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>43845</v>
@@ -1375,27 +1279,24 @@
         <v>43982</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="L18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>43845</v>
@@ -1404,27 +1305,24 @@
         <v>43982</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>43845</v>
@@ -1433,27 +1331,24 @@
         <v>43982</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="L20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2">
         <v>45509</v>
@@ -1462,10 +1357,10 @@
         <v>46461</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>15</v>
@@ -1476,20 +1371,17 @@
       <c r="J21" s="2">
         <v>46371</v>
       </c>
-      <c r="N21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2">
         <v>45509</v>
@@ -1498,10 +1390,10 @@
         <v>46461</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H22">
         <v>15</v>
@@ -1510,20 +1402,17 @@
         <v>45551</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="N22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2">
         <v>45509</v>
@@ -1532,10 +1421,10 @@
         <v>46461</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H23">
         <v>15</v>
@@ -1544,20 +1433,17 @@
       <c r="J23" s="2">
         <v>46371</v>
       </c>
-      <c r="N23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2">
         <v>45509</v>
@@ -1566,10 +1452,10 @@
         <v>46461</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I24" s="2">
         <v>45551</v>
@@ -1577,20 +1463,17 @@
       <c r="J24" s="2">
         <v>46371</v>
       </c>
-      <c r="N24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2">
         <v>45509</v>
@@ -1599,29 +1482,26 @@
         <v>46461</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I25" s="2">
         <v>45551</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="N25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2">
         <v>45509</v>
@@ -1630,29 +1510,26 @@
         <v>46461</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2">
         <v>46371</v>
       </c>
-      <c r="N26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2">
         <v>45509</v>
@@ -1661,29 +1538,26 @@
         <v>46097</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2">
         <v>46006</v>
       </c>
-      <c r="N27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>ROW()-1</f>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2">
         <v>45509</v>
@@ -1692,27 +1566,24 @@
         <v>45733</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>ROW()-1</f>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D29" s="2">
         <v>45509</v>
@@ -1721,27 +1592,24 @@
         <v>45733</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <f>ROW()-1</f>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D30" s="2">
         <v>45509</v>
@@ -1750,27 +1618,24 @@
         <v>45733</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="L30" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <f>ROW()-1</f>
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D31" s="2">
         <v>45509</v>
@@ -1779,15 +1644,12 @@
         <v>45733</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="L31" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" t="b">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1822,31 +1684,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -6610,27 +6472,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
